--- a/Buding_Secondary_TestCases/Weiche/布丁微车V3.0测试用例.xlsx
+++ b/Buding_Secondary_TestCases/Weiche/布丁微车V3.0测试用例.xlsx
@@ -19,14 +19,188 @@
     <sheet name="推送P" sheetId="12" r:id="rId10"/>
     <sheet name="消息盒子MB" sheetId="10" r:id="rId11"/>
     <sheet name="行车记录仪TR" sheetId="7" r:id="rId12"/>
-    <sheet name="其他O" sheetId="8" r:id="rId13"/>
+    <sheet name="issue转换" sheetId="14" r:id="rId13"/>
+    <sheet name="网络性能测试NW" sheetId="15" r:id="rId14"/>
+    <sheet name="其他O" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>liliang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.fiddle</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中勾选Allow remote computers to connect</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.DUT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
+3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
+4.DUT设置代理（proxy server：192.168.199.206 port：8888）
+5.fiddle中勾选Simulate Modem Speeds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>liliang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.fiddle</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中勾选Allow remote computers to connect</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.DUT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
+3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
+4.DUT设置代理（proxy server：192.168.199.206 port：8888）
+5.fiddle中勾选Simulate Modem Speeds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="777">
   <si>
     <t>测试项</t>
   </si>
@@ -784,29 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备已联网(不关心网络环境)
-开启通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用处于后台运行或未启动状态
-2. 后台推送Push消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可成功收取Push消息
-2. 如指定显示角标，则在桌面icon除显示该角标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push【IOS only】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行车记录仪TR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,10 +1285,6 @@
     <t>测试设备未联网</t>
   </si>
   <si>
-    <t>网络环境测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试设备连接可用Wifi</t>
   </si>
   <si>
@@ -1148,51 +1295,6 @@
   </si>
   <si>
     <t>测试设备连接无外网Wifi</t>
-  </si>
-  <si>
-    <t>1. 执行以上用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用新版本对原有已发布版本进行覆盖安装测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统兼容性测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备兼容性测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用不同系统版本的设备
-2. 执行以上用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用，应用页面显示正常
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用不同硬件配置的设备
-2. 执行以上用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 地图改为高德/Google</t>
@@ -1870,10 +1972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. check testcase by Travis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 3.0新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1890,10 +1988,6 @@
   </si>
   <si>
     <t>012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3160,12 +3254,978 @@
     <t>后台运行（iPhone）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>session过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 在两台设备同时登陆同一账户
+2. 在两台设备间点击刷新按钮
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill应用进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 手动kill进程设置应用里杀死进程
+2.adb shell am kill pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>状态栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开启OnRoad服务，保持运行一段时间
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消分提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试步骤：
+1. 应用保持在OnRoad页面退至后台运行
+2. 如果时间跨越0点后，再次返回应用时，查看
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录日之间的切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 在手机浏览器中打开http://m.weiche.me/help.html帮助页面
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页和设置登录状态不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 在IOS设备中登录，并使用微车相关功能
+2. 在另一设备登录后，查看原有设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 转换至显示当天的timeline数据
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.应用首页显示和账户与设置页面显示一致
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加两个查询地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.显示两个地点查询信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入应用OnRoad页面，保持服务运行
+2. 点击设备Home键将应用退至后台长时间运行
+3. 一段时间后再次点击应用，返回前台运行时，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后的切换响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 使用3G手机，当网络环境不好时，仅有2G信号
+2. 点击进入应用，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启应用时的loading时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.loading应该10秒内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 手动关闭系统服务（Wifi、定位、应用后台刷新）
+2. 进入OnRoad服务页面，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.有提示相关提示对话框弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用对环境的check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check 本地和server时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast提示OnRoad状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.toast类似提示“OnRoad已运行”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>修改stay地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.地址列表显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoad判断状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1，开启OnRoad服务并保持应用正常运行
+2. 静置测试设备，偶尔拿起进行操作
+3. 再次查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.正确显示行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 开启OnRoad数据，并成功获取信息
+2. kill应用进程重新进入OnRoad页面，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. timeline日期显示正常（倒序显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 进入OnRoad页面，滑动查看历史Timeline数据
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.显示当日信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入添加备注页面
+2. 先选中list中任意备注信息，再取消选择
+3. 再次点击list中备注信息，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.可以正常选中查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check德地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入附近页面、新增检查点列表或高发周排行页面
+2. 选择任意检查点进入检查点详情页
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.页面中地图显示“高德地图”字样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 在iphone与ipadmini同时登陆相同账号
+2. 分别执行若干操作后，再次使用iphone时，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.devices上都可以正常操作，与服务器连接正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入OnRoad页面
+2. 选择任意地址，点击编辑按钮
+3. 点击"添加备注"按钮，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.整个添加备注EditText都可以点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>添加车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入添加车辆页面，选择任一查询城市
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.选中车牌号EditText后默认文字消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入OnRoad页面
+2. 选择任意Timeline进行分享时
+3. 查看页面截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.应移除页面入“返回今日”“编辑地址”button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入OnRoad页面
+2. 点击分享按钮，选择保存至相册
+3. 进入相册查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.保存截图信息完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行模式下运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. OnRoad服务开启后，开启设备飞行模式
+2. 启动微车，进入应用首页，静止一段时间，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提示网络环境差
+2.运行正常（不出现无响应，闪退）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章信息的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 使用iPhone5设备，选择已添加车辆中违章数量较多的进入违章列表页
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>时间序列页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 应用中存在OnRoad数据
+2. 点击页面日期进入时间序列页面
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.日期和月份正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭OnRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.应用正常运行（未发生闪退）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.车辆信息完整显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车记录仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1.打开"微车" 
+2.点击OnRoad的入口
+3.点击右下角行车记录仪
+4.进入文件
+5.过10分钟点击"返回"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.行车记录页面显示，功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1.打开"微车" 
+2.点击周排行进入地图界面
+3.系统suspend 5分钟
+4.唤醒系统 滑动地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周排行地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.功能正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1.打开"微车" 
+2.进入到home界面
+3.进入onRoad界面
+4.滑动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.功能正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoad界面滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1.安装打开"微车" 
+2停留在loading界面2小时
+3.唤醒设备，点击loading界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading界面唤醒响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.正常活动（未出现无响应，闪退）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 手动关闭手机GPS服务
+2. 进入OnRoad页面，查看
+预期结果：
+1. 应用弹出开启定位提示，点击后进入设置页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS、网络异常提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入OnRoad页面
+2. 点击任意驾车or乘车event进入详情页
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.起始终止地址，logo，速度显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 测试时使用htcg18、MI-one(均有90%电量)
+2. 开启OnRoad服务后，静置（凌晨12:00左右开始）
+3. 早晨10点左右查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗电测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.设备应剩余50%以上电量（后期使用powertutor）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入新增检查点列表页
+2. 选择任意检查点进入检查点详情页
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增检查点详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面布局，内容显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1.安装微车
+2.反复打开退出微车操作
+3.把sdcard手动卸载又插回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复打开退出微车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 保持开启OnRoad服务
+2. 当设备关机导致一段时间内无数据时，查看OnRoad页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoad页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+如果出现session异常过期的情况：
+1. 取消应用全部已登录状态（首页、账户页）
+2. 在首页弹toast提示“登录已过期，请重新登录”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.查看Timeline在此段时间内应标记为OnRoadoff状态
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.停留状态栏包括：地址+停留时间（exp:公司 停留32分钟），并event时间计算准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加车辆
+2.设置消分时间
+3.弹出消分对框框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. 帮助页面正常打开，页面显示完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.timeline的左侧是本地记录时间（如：00:58 00:55），右侧为server返回时间（家 停留3分钟）
+（58-55=3左右时间一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示刷新动画，并显示后台记录的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.页面list都可以完整查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.有相应的提示对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. check and update testcase by Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. update testcase by LiLiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 保持开启OnRoad服务
+2. 当长时间运行后（1d以上），再次联网，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用在后台收取轨迹信息
+2. 联网成功后，数据可正常回传服务器，并获取服务器计算后数据，在timeline中展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 应在timeline中展现OnRoadoff状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功采集数据、回传服务器，并在下次启动后，展示数据信息
+2. timeline无异常断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱网测试</t>
+  </si>
+  <si>
+    <t>边界测试</t>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push【IOS only】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用处于后台运行或未启动状态
+2. 后台推送Push消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用不同系统版本的设备
+2. 执行以上用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用，应用页面显示正常
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备兼容性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用不同硬件配置的设备
+2. 执行以上用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络环境测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过fiddle代理连接网络（android和ios配置方法相同，配置方法参考批注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为882,150改为929
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为10,150改为10
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为0,150改为0
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为2000,150改为2200
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为895,150改为940
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为1950,150改为2150
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功收取Push消息
+2. 如指定显示角标，则在桌面icon除显示该角标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用新版本对原有已发布版本进行覆盖安装测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用，应用页面显示正常
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络环境测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 执行功能测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 同时添加两个需要输入验证码的城市（郑州、东莞）
+2. 保存后进入车辆违章列表页面，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 开启应用，进入OnRoad页面
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 点击OnRoad页面顶部关闭按钮，手动关闭OnRoad服务
+2. 再次进入OnRoad页面后点击开始按钮，启动服务
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 进入OnRoad页面
+2. 点击任意stay地址后编辑按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 首次安装3.0版本，OnRoad服务处于关闭状态
+2. 进入应用，静止一段时间6s左右应用发生
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤：
+1. 【兼容性】在ipadmini中安装测试版本
+2. 进入应用首页，点击已添加车辆列表中最后一辆车，展开车辆信息区域
+3. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统兼容性测试【IOS】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统兼容性测试【Android】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为882,150改为929
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为10,150改为10
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为0,150改为0
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为2000,150改为2200
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为895,150改为940
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为1950,150改为2150
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>网络测试(NW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. check testcase by Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. update testcase by Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,6 +4324,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3388,7 +4476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3491,33 +4579,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3545,18 +4606,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3578,83 +4627,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <font>
         <b/>
@@ -4908,6 +5948,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="捕获.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="3848100"/>
+          <a:ext cx="2066925" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -5193,195 +6276,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="51" customWidth="1"/>
+    <col min="5" max="9" width="9" style="51"/>
+    <col min="10" max="10" width="17" style="51" customWidth="1"/>
+    <col min="11" max="11" width="38" style="51" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="51" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="D3" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="D6" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27">
+      <c r="A16" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="J16" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>773</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:13" ht="27">
+      <c r="A17" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="J17" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="18" spans="1:13" ht="27">
+      <c r="A18" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="J18" s="69" t="s">
+        <v>774</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>776</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5431,99 +6700,99 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="66">
-      <c r="A2" s="34" t="s">
-        <v>244</v>
+      <c r="A2" s="55" t="s">
+        <v>228</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="66">
-      <c r="A3" s="35"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="66">
-      <c r="A4" s="35"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="35"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="36"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="14" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -5533,18 +6802,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5565,7 +6834,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5603,19 +6872,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="58" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="58" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -5624,32 +6893,32 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="15" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="115.5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="58" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="58" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -5658,33 +6927,33 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="115.5">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>278</v>
+      <c r="E6" s="58" t="s">
+        <v>262</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>140</v>
@@ -5692,23 +6961,23 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="115.5">
-      <c r="A7" s="37"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>261</v>
+      </c>
+      <c r="C7" s="58"/>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="56" customFormat="1">
+    <row r="8" spans="1:7" s="43" customFormat="1">
       <c r="A8" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -5717,86 +6986,87 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="56" customFormat="1" ht="33">
-      <c r="A9" s="34" t="s">
-        <v>486</v>
+    <row r="9" spans="1:7" s="43" customFormat="1" ht="33">
+      <c r="A9" s="55" t="s">
+        <v>468</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="56" customFormat="1" ht="33">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" s="43" customFormat="1" ht="33">
+      <c r="A10" s="56"/>
       <c r="B10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="56" customFormat="1" ht="33">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:7" s="43" customFormat="1" ht="33">
+      <c r="A11" s="56"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="56" customFormat="1" ht="66">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:7" s="43" customFormat="1" ht="66">
+      <c r="A12" s="57"/>
       <c r="B12" s="26" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
@@ -5804,14 +7074,13 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5827,6 +7096,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5834,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5873,240 +7143,240 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="37" t="s">
-        <v>149</v>
+      <c r="A2" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="49.5">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="49.5">
-      <c r="A7" s="37"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="115.5">
-      <c r="A8" s="37"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="37"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="82.5">
-      <c r="A10" s="37"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="66">
+      <c r="A11" s="58"/>
+      <c r="B11" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="66">
+      <c r="A12" s="58"/>
+      <c r="B12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5">
+      <c r="A13" s="58"/>
+      <c r="B13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="A11" s="37"/>
-      <c r="B11" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="66">
-      <c r="A12" s="37"/>
-      <c r="B12" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="49.5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="56" customFormat="1">
+    <row r="14" spans="1:8" s="43" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
@@ -6115,22 +7385,22 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:8" s="56" customFormat="1" ht="33">
+    <row r="15" spans="1:8" s="43" customFormat="1" ht="33">
       <c r="A15" s="15"/>
       <c r="B15" s="26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -6141,170 +7411,170 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="77" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="75" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="71" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="69" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="53" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6325,10 +7595,1020 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="40.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="82.5">
+      <c r="A2" s="62"/>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="63"/>
+      <c r="B3" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="33">
+      <c r="A4" s="63"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="165.75" customHeight="1">
+      <c r="A5" s="63"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.5">
+      <c r="A6" s="63"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="66">
+      <c r="A7" s="63"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5">
+      <c r="A8" s="63"/>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="66">
+      <c r="A9" s="63"/>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="82.5">
+      <c r="A10" s="63"/>
+      <c r="B10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="66">
+      <c r="A11" s="63"/>
+      <c r="B11" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="66">
+      <c r="A12" s="63"/>
+      <c r="B12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="49.5">
+      <c r="A13" s="63"/>
+      <c r="B13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" s="63"/>
+      <c r="B14" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="49.5">
+      <c r="A15" s="63"/>
+      <c r="B15" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="66">
+      <c r="A16" s="63"/>
+      <c r="B16" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="49.5">
+      <c r="A17" s="63"/>
+      <c r="B17" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="63"/>
+      <c r="B18" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="66">
+      <c r="A19" s="63"/>
+      <c r="B19" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="82.5">
+      <c r="A20" s="63"/>
+      <c r="B20" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="66">
+      <c r="A21" s="63"/>
+      <c r="B21" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="66">
+      <c r="A22" s="63"/>
+      <c r="B22" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="49.5">
+      <c r="A23" s="63"/>
+      <c r="B23" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>629</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="66">
+      <c r="A24" s="63"/>
+      <c r="B24" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="66">
+      <c r="A25" s="63"/>
+      <c r="B25" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="66">
+      <c r="A26" s="63"/>
+      <c r="B26" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="66">
+      <c r="A27" s="63"/>
+      <c r="B27" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="66">
+      <c r="A28" s="63"/>
+      <c r="B28" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="82.5">
+      <c r="A29" s="63"/>
+      <c r="B29" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="82.5">
+      <c r="A30" s="63"/>
+      <c r="B30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="99">
+      <c r="A31" s="63"/>
+      <c r="B31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="82.5">
+      <c r="A32" s="63"/>
+      <c r="B32" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="82.5">
+      <c r="A33" s="63"/>
+      <c r="B33" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="66">
+      <c r="A34" s="63"/>
+      <c r="B34" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="99">
+      <c r="A35" s="63"/>
+      <c r="B35" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="66">
+      <c r="A36" s="63"/>
+      <c r="B36" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="99">
+      <c r="A37" s="63"/>
+      <c r="B37" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>669</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="66">
+      <c r="A38" s="63"/>
+      <c r="B38" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="66">
+      <c r="A39" s="63"/>
+      <c r="B39" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="66">
+      <c r="A40" s="63"/>
+      <c r="B40" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="66">
+      <c r="A41" s="63"/>
+      <c r="B41" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G40">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G41">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D41">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="55.625" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="66">
+      <c r="A2" s="55" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="82.5">
+      <c r="A3" s="56"/>
+      <c r="B3" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="82.5">
+      <c r="A4" s="56"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="82.5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.5">
+      <c r="A6" s="56"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="82.5">
+      <c r="A7" s="57"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>766</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="G7" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6353,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>12</v>
+        <v>699</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>3</v>
@@ -6366,202 +8646,330 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="37" t="s">
-        <v>144</v>
+      <c r="A2" s="58" t="s">
+        <v>700</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>8</v>
+        <v>701</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>148</v>
+        <v>702</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>145</v>
+        <v>703</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>146</v>
+        <v>704</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>147</v>
+        <v>735</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>208</v>
+        <v>736</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>737</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>213</v>
+        <v>703</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>738</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>214</v>
+        <v>739</v>
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" ht="49.5">
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>749</v>
+      </c>
       <c r="D4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="37"/>
+        <v>705</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>706</v>
+      </c>
       <c r="F4" s="15" t="s">
-        <v>215</v>
+        <v>707</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="33">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" ht="49.5">
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="37"/>
+        <v>751</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>750</v>
+      </c>
       <c r="D5" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="37"/>
+        <v>705</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>706</v>
+      </c>
       <c r="F5" s="15" t="s">
-        <v>214</v>
+        <v>707</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>708</v>
+      </c>
       <c r="D6" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="37"/>
+        <v>709</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>710</v>
+      </c>
       <c r="F6" s="15" t="s">
-        <v>214</v>
+        <v>740</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="58" t="s">
+        <v>741</v>
+      </c>
       <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>711</v>
+      </c>
       <c r="D7" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="37"/>
+        <v>712</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>742</v>
+      </c>
       <c r="F7" s="15" t="s">
-        <v>214</v>
+        <v>713</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="33">
-      <c r="A8" s="37"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="58"/>
       <c r="D8" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>202</v>
+      </c>
+      <c r="E8" s="58"/>
       <c r="F8" s="15" t="s">
-        <v>215</v>
+        <v>714</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="49.5">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:7" ht="33">
+      <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>216</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C9" s="58"/>
       <c r="D9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E9" s="58"/>
       <c r="F9" s="15" t="s">
-        <v>214</v>
+        <v>715</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="49.5">
-      <c r="A10" s="37"/>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>218</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C10" s="58"/>
       <c r="D10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
-        <v>221</v>
+        <v>716</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="49.5">
-      <c r="A11" s="37"/>
+    <row r="11" spans="1:7" ht="33">
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>219</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C11" s="58"/>
       <c r="D11" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>222</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E11" s="58"/>
       <c r="F11" s="15" t="s">
-        <v>221</v>
+        <v>717</v>
       </c>
       <c r="G11" s="15"/>
     </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="58"/>
+      <c r="B12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="99">
+      <c r="A13" s="58"/>
+      <c r="B13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" s="58"/>
+      <c r="B14" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="99">
+      <c r="A15" s="58"/>
+      <c r="B15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="99">
+      <c r="A16" s="58"/>
+      <c r="B16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="99">
+      <c r="A17" s="58"/>
+      <c r="B17" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="99">
+      <c r="A18" s="58"/>
+      <c r="B18" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="G18" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="5">
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A7:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+  <conditionalFormatting sqref="G26:G53 H66 G67:G1048576 G1:G17">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D67:D1048576 E66 D26:D53 D1:D12">
       <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 H66 G26:G53 G1:G17">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6608,7 +9016,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="55" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6629,7 +9037,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="115.5">
-      <c r="A3" s="35"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -6648,27 +9056,27 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A4" s="36"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="14" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6678,137 +9086,137 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="132">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="55" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A7" s="35"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="14" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="49" customFormat="1" ht="33">
-      <c r="A8" s="35"/>
-      <c r="B8" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="47" t="s">
+    <row r="8" spans="1:7" s="40" customFormat="1" ht="33">
+      <c r="A8" s="56"/>
+      <c r="B8" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" s="51" customFormat="1" ht="33">
-      <c r="A9" s="35"/>
-      <c r="B9" s="50" t="s">
+      <c r="E8" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" s="42" customFormat="1" ht="33">
+      <c r="A9" s="56"/>
+      <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="47"/>
+      <c r="E9" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A10" s="35"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="14" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A11" s="35"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="36"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -6819,10 +9227,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6841,10 +9249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6881,1198 +9289,1208 @@
       <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="231">
-      <c r="A2" s="37" t="s">
-        <v>260</v>
+      <c r="A2" s="58" t="s">
+        <v>244</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="231">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" ht="33">
-      <c r="A7" s="37"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:8" s="37" customFormat="1" ht="33">
+      <c r="A7" s="58"/>
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="45"/>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="33">
-      <c r="A8" s="37"/>
-      <c r="B8" s="44" t="s">
-        <v>496</v>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" s="37" customFormat="1" ht="33">
+      <c r="A8" s="58"/>
+      <c r="B8" s="35" t="s">
+        <v>478</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" s="43" customFormat="1" ht="33">
-      <c r="A9" s="37"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" s="34" customFormat="1" ht="33">
+      <c r="A9" s="58"/>
       <c r="B9" s="20" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="29" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="43" customFormat="1" ht="33">
-      <c r="A10" s="37"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="34" customFormat="1" ht="33">
+      <c r="A10" s="58"/>
       <c r="B10" s="20" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="29" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="82.5">
-      <c r="A11" s="37"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="37"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="37"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="33">
-      <c r="A14" s="37"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="82.5">
-      <c r="A15" s="37"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="14" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="49.5">
-      <c r="A16" s="37"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="49.5">
-      <c r="A17" s="37"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="14" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>528</v>
+        <v>508</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>510</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="37"/>
-      <c r="B18" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>302</v>
-      </c>
+    <row r="18" spans="1:8" ht="16.5">
+      <c r="A18" s="58"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="15"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="37"/>
-      <c r="B19" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>305</v>
+      <c r="A19" s="58"/>
+      <c r="B19" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="57" customFormat="1" ht="49.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D20" s="47" t="s">
+    <row r="20" spans="1:8" ht="33">
+      <c r="A20" s="58"/>
+      <c r="B20" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" s="44" customFormat="1" ht="49.5">
+      <c r="A21" s="58"/>
+      <c r="B21" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="E21" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="82.5">
+      <c r="A22" s="58"/>
+      <c r="B22" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" ht="82.5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" ht="66">
-      <c r="A22" s="37"/>
-      <c r="B22" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>510</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="49.5">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:8" ht="66">
+      <c r="A23" s="58"/>
       <c r="B23" s="14" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:8" ht="49.5">
+      <c r="A24" s="58"/>
       <c r="B24" s="14" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="49.5">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:8" ht="33">
+      <c r="A25" s="58"/>
       <c r="B25" s="14" t="s">
-        <v>297</v>
+        <v>520</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>307</v>
+        <v>492</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>532</v>
+        <v>377</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>534</v>
+        <v>378</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:8" ht="49.5">
+      <c r="A26" s="58"/>
       <c r="B26" s="14" t="s">
-        <v>535</v>
+        <v>281</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>395</v>
+        <v>514</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>396</v>
+        <v>516</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="37"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="14" t="s">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>539</v>
+        <v>378</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="66">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:8" ht="33">
+      <c r="A28" s="58"/>
       <c r="B28" s="14" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>316</v>
+        <v>521</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="66">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:8" ht="49.5">
+      <c r="A29" s="58"/>
       <c r="B29" s="14" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>540</v>
+        <v>299</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>541</v>
+        <v>300</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="132">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" s="58"/>
       <c r="B30" s="14" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="82.5">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:8" ht="132">
+      <c r="A31" s="58"/>
       <c r="B31" s="14" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>574</v>
+        <v>302</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>572</v>
+        <v>303</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="99">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:8" ht="82.5">
+      <c r="A32" s="58"/>
       <c r="B32" s="14" t="s">
-        <v>566</v>
+        <v>295</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>320</v>
+        <v>556</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:8" ht="99">
+      <c r="A33" s="58"/>
       <c r="B33" s="14" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" ht="49.5">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:8" ht="33">
+      <c r="A34" s="58"/>
       <c r="B34" s="14" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="82.5">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:8" ht="49.5">
+      <c r="A35" s="58"/>
       <c r="B35" s="14" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>548</v>
+        <v>304</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="82.5">
-      <c r="A36" s="37"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="14" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="82.5">
-      <c r="A37" s="37"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="14" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" ht="33">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:8" ht="82.5">
+      <c r="A38" s="58"/>
       <c r="B38" s="14" t="s">
-        <v>312</v>
+        <v>525</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>321</v>
+        <v>532</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" s="57" customFormat="1" ht="82.5">
-      <c r="A39" s="37"/>
-      <c r="B39" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="D39" s="47" t="s">
+    <row r="39" spans="1:8" ht="33">
+      <c r="A39" s="58"/>
+      <c r="B39" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" s="44" customFormat="1" ht="82.5">
+      <c r="A40" s="58"/>
+      <c r="B40" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="47" t="s">
-        <v>557</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="82.5">
-      <c r="A40" s="37"/>
-      <c r="B40" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" ht="115.5">
-      <c r="A41" s="37"/>
+      <c r="E40" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="1:8" ht="82.5">
+      <c r="A41" s="58"/>
       <c r="B41" s="14" t="s">
-        <v>561</v>
+        <v>306</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="37"/>
+    <row r="42" spans="1:8" ht="115.5">
+      <c r="A42" s="58"/>
       <c r="B42" s="14" t="s">
-        <v>323</v>
+        <v>543</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" s="62" customFormat="1" ht="33">
-      <c r="A43" s="37"/>
-      <c r="B43" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>576</v>
-      </c>
-      <c r="D43" s="60" t="s">
+    <row r="43" spans="1:8" ht="33">
+      <c r="A43" s="58"/>
+      <c r="B43" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>578</v>
-      </c>
-      <c r="F43" s="60" t="s">
-        <v>579</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="61"/>
-    </row>
-    <row r="44" spans="1:8" ht="148.5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="E43" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" s="49" customFormat="1" ht="33">
+      <c r="A44" s="58"/>
+      <c r="B44" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="66">
-      <c r="A45" s="37"/>
+      <c r="E44" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+    </row>
+    <row r="45" spans="1:8" ht="148.5">
+      <c r="A45" s="58"/>
       <c r="B45" s="14" t="s">
-        <v>565</v>
+        <v>309</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" ht="66">
-      <c r="A46" s="37"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" s="37"/>
+    <row r="47" spans="1:8" ht="66">
+      <c r="A47" s="58"/>
       <c r="B47" s="14" t="s">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>333</v>
+        <v>569</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" s="57" customFormat="1" ht="33">
-      <c r="A48" s="37"/>
-      <c r="B48" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48" s="47" t="s">
+    <row r="48" spans="1:8" ht="49.5">
+      <c r="A48" s="58"/>
+      <c r="B48" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>494</v>
-      </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="51"/>
-    </row>
-    <row r="49" spans="1:8" ht="33">
-      <c r="A49" s="37"/>
-      <c r="B49" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="D49" s="47" t="s">
+      <c r="E48" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" s="44" customFormat="1" ht="33">
+      <c r="A49" s="58"/>
+      <c r="B49" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="42"/>
+    </row>
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="58"/>
+      <c r="B50" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="37"/>
-      <c r="B50" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>414</v>
+      <c r="E50" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>320</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="33">
-      <c r="A51" s="37"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="14" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="33">
-      <c r="A52" s="37"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="14" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="66">
-      <c r="A53" s="37"/>
+    <row r="53" spans="1:8" ht="33">
+      <c r="A53" s="58"/>
       <c r="B53" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>337</v>
+        <v>394</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" ht="33">
-      <c r="A54" s="37"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" ht="66">
+      <c r="A54" s="58"/>
       <c r="B54" s="14" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:8" ht="99">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:8" ht="33">
+      <c r="A55" s="58"/>
       <c r="B55" s="14" t="s">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>514</v>
+      <c r="E55" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>402</v>
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="33">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:8" ht="99">
+      <c r="A56" s="58"/>
       <c r="B56" s="14" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>513</v>
+        <v>323</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="1:8" ht="49.5">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:8" ht="33">
+      <c r="A57" s="58"/>
       <c r="B57" s="14" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="49.5">
+      <c r="A58" s="58"/>
+      <c r="B58" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" ht="33">
-      <c r="A58" s="37"/>
-      <c r="B58" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>406</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:8" ht="33">
-      <c r="A59" s="37"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="14" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>592</v>
+        <v>388</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="1:8" ht="49.5">
-      <c r="A60" s="37"/>
+    <row r="60" spans="1:8" ht="33">
+      <c r="A60" s="58"/>
       <c r="B60" s="14" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>407</v>
+        <v>574</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>405</v>
+        <v>696</v>
       </c>
       <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" ht="33">
+      <c r="A61" s="58"/>
+      <c r="B61" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A60"/>
+    <mergeCell ref="A2:A61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="G1:G61">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G61">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8123,20 +10541,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>81</v>
@@ -8144,7 +10562,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -8155,7 +10573,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>82</v>
@@ -8163,7 +10581,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="82.5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -8174,7 +10592,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>83</v>
@@ -8182,131 +10600,131 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="F8" s="58"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="37"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>179</v>
+      <c r="E9" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>174</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="37"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1">
       <c r="A12" s="24" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22"/>
@@ -8316,42 +10734,42 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A13" s="52" t="s">
-        <v>370</v>
+      <c r="A13" s="59" t="s">
+        <v>352</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A14" s="53"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="26" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -8365,10 +10783,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8428,7 +10846,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="55" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8449,7 +10867,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="35"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -8468,7 +10886,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="35"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8479,7 +10897,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>116</v>
@@ -8487,7 +10905,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="35"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -8506,7 +10924,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="35"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -8525,7 +10943,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="35"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -8545,7 +10963,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8555,11 +10973,11 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="132">
-      <c r="A9" s="34" t="s">
-        <v>349</v>
+      <c r="A9" s="55" t="s">
+        <v>332</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>91</v>
@@ -8576,9 +10994,9 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A10" s="35"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="14" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>91</v>
@@ -8587,15 +11005,15 @@
         <v>92</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A11" s="35"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
@@ -8606,35 +11024,35 @@
         <v>92</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="36"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1">
       <c r="A13" s="19" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -8644,61 +11062,61 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A14" s="34" t="s">
-        <v>368</v>
+      <c r="A14" s="55" t="s">
+        <v>350</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="99">
-      <c r="A15" s="35"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="14" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A16" s="36"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="14" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -8710,10 +11128,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8737,7 +11155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8777,7 +11195,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8798,7 +11216,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -8817,7 +11235,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="49.5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8836,7 +11254,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
@@ -8856,51 +11274,51 @@
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="66">
-      <c r="A8" s="37"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="37"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
@@ -8908,40 +11326,40 @@
         <v>64</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="37"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1">
       <c r="A11" s="27" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -8952,34 +11370,34 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A12" s="39" t="s">
-        <v>377</v>
+      <c r="A12" s="62" t="s">
+        <v>359</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="82.5">
-      <c r="A13" s="40"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="26" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
@@ -8988,26 +11406,26 @@
         <v>102</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A14" s="40"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -9020,42 +11438,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5 H9:H12 G7:G1048576">
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9080,7 +11498,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9118,7 +11536,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="148.5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="55" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -9139,7 +11557,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="132">
-      <c r="A3" s="35"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -9158,7 +11576,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="148.5">
-      <c r="A4" s="35"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9177,7 +11595,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="148.5">
-      <c r="A5" s="35"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -9196,7 +11614,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="82.5">
-      <c r="A6" s="35"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -9215,7 +11633,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="49.5">
-      <c r="A7" s="35"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -9234,7 +11652,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:21" ht="49.5">
-      <c r="A8" s="35"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -9253,7 +11671,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:21" ht="66">
-      <c r="A9" s="35"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -9272,7 +11690,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="33">
-      <c r="A10" s="36"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -9292,7 +11710,7 @@
     </row>
     <row r="11" spans="1:21" s="29" customFormat="1">
       <c r="A11" s="28" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -9316,42 +11734,42 @@
       <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21" ht="33">
-      <c r="A12" s="54" t="s">
-        <v>364</v>
+      <c r="A12" s="64" t="s">
+        <v>346</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:21" ht="66">
-      <c r="A13" s="55"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -9362,34 +11780,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9453,7 +11871,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -9474,7 +11892,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="82.5">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -9482,18 +11900,18 @@
         <v>105</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -9501,18 +11919,18 @@
         <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
@@ -9531,7 +11949,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -9550,7 +11968,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="37"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -9569,7 +11987,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A8" s="37"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
@@ -9589,7 +12007,7 @@
     </row>
     <row r="9" spans="1:8" ht="33">
       <c r="A9" s="31" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -9599,66 +12017,66 @@
       <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="34" t="s">
-        <v>362</v>
+      <c r="A10" s="55" t="s">
+        <v>344</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A11" s="35"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="26" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="99">
-      <c r="A12" s="36"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="26" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9668,10 +12086,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10:H12 G1:G1048576 G11:H11">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9735,7 +12153,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -9756,7 +12174,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="37"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -9775,7 +12193,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="82.5">
-      <c r="A4" s="37"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -9783,18 +12201,18 @@
         <v>120</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>121</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="82.5">
-      <c r="A5" s="37"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -9802,18 +12220,18 @@
         <v>120</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="37"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -9832,7 +12250,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="37"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -9852,7 +12270,7 @@
     </row>
     <row r="8" spans="1:8" ht="33">
       <c r="A8" s="31" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="31"/>
@@ -9862,66 +12280,66 @@
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="34" t="s">
-        <v>360</v>
+      <c r="A9" s="55" t="s">
+        <v>342</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="35"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="26" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="99">
-      <c r="A11" s="36"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="26" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9931,82 +12349,82 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H11">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Buding_Secondary_TestCases/Weiche/布丁微车V3.0测试用例.xlsx
+++ b/Buding_Secondary_TestCases/Weiche/布丁微车V3.0测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="changelog" sheetId="11" r:id="rId1"/>
@@ -19,15 +19,101 @@
     <sheet name="推送P" sheetId="12" r:id="rId10"/>
     <sheet name="消息盒子MB" sheetId="10" r:id="rId11"/>
     <sheet name="行车记录仪TR" sheetId="7" r:id="rId12"/>
-    <sheet name="issue转换" sheetId="14" r:id="rId13"/>
-    <sheet name="网络性能测试NW" sheetId="15" r:id="rId14"/>
-    <sheet name="其他O" sheetId="8" r:id="rId15"/>
+    <sheet name="其他O" sheetId="8" r:id="rId13"/>
+    <sheet name="issue转换" sheetId="14" r:id="rId14"/>
+    <sheet name="网络性能测试NW" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>liliang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.fiddle</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中勾选Allow remote computers to connect</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.DUT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
+3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
+4.DUT设置代理（proxy server：192.168.199.206 port：8888）
+5.fiddle中勾选Simulate Modem Speeds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -113,94 +199,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>liliang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1.fiddle</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中勾选Allow remote computers to connect</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.DUT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
-3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
-4.DUT设置代理（proxy server：192.168.199.206 port：8888）
-5.fiddle中勾选Simulate Modem Speeds</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="813">
   <si>
     <t>测试项</t>
   </si>
@@ -1786,10 +1786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台运行最长时间需和RD沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnRoad入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2187,11 +2183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 开启OnRoad服务
-2. 连接网络后，进入OnRoad页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.开启OnRoad服务，点击设备Home键返回桌面，将应用置于后台运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2212,10 +2203,6 @@
   <si>
     <t>1. 设备中未按装GooglePlayService，应用使用默认定位模块
 2. 应用可成功采集数据、回传服务器并成功展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooglePlayService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2267,10 +2254,6 @@
   </si>
   <si>
     <t>031-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关闭微车内部push开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2692,20 +2675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据的回传和下发（Android）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用采集数据并保存至本地数据库；
-onroad开启状态下每30分钟传一次；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用采集数据并保存至本地数据库
-2. 在进入app后，应用启动上传线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采集数据（静止）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2754,75 +2723,6 @@
   <si>
     <t>1.点击分享
 2.对超长Timeline进行分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.主流的SNS应用：微信好友，微信朋友圈，新浪微博</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，腾讯微博，QQ，人人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.分享event统计区域截图，或分享统计数据+Timeline截图（微信好友，朋友圈分享内容为截图，新浪微博分享文字+截图（Logo+二维码））
-3.平均驾驶速度及排行、最高驾驶速度及排行、驾驶起始/结束地址、驾驶时间、驾驶距离、油耗指数及排行、行车品牌、车型（微信好友，朋友圈分享内容为截图，新浪微博分享文字+截图（含二维码））</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.主流的SNS应用：微信好友，微信朋友圈，新浪微博</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，腾讯微博，QQ，人人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.可成功分享</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据的回传和下发（IOS）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2881,20 +2781,6 @@
   </si>
   <si>
     <t>重启服务（Android）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开启onRoad服务，kill应用进程或后台被系统清理
-3.点击push消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.push"行车记录已停止，请点击开启"message +声音
-2.重现开启应用，OnRoad服务自动重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3809,10 +3695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. update testcase by LiLiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4105,89 +3987,340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为882,150改为929
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为10,150改为10
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为0,150改为0
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为2000,150改为2200
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为895,150改为940
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WCDMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置方法参考预制条件批注
-2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
-3.搜索“request-trickle-delay”将300改为1950,150改为2150
-4.测试微车的刷新，定位等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <t>009-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.push"行车记录已停止，请点击开启"message +声音
+2.重新开启应用，OnRoad服务自动重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用第三方工具清理内存（Taskiller）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.应用后台服务应保持运行，不会被kill掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启onRoad服务，kill应用进程或后台被系统清理
+2.点击push消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009-003</t>
+  </si>
+  <si>
+    <t>009-004</t>
+  </si>
+  <si>
+    <t>009-005</t>
+  </si>
+  <si>
+    <t>GooglePlayService（Android）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.主流的SNS应用：微信好友，微信朋友圈，新浪微博</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，腾讯微博，QQ，人人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.可成功分享；分享截图中icon或订制元素显示正常</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.主流的SNS应用：微信好友，微信朋友圈，新浪微博</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，腾讯微博，QQ，人人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.分享event统计区域截图，或分享统计数据+Timeline截图（微信好友，朋友圈分享内容为截图，新浪微博分享文字+截图（Logo+二维码））
+3.平均驾驶速度及排行、最高驾驶速度及排行、驾驶起始/结束地址、驾驶时间、驾驶距离、油耗指数及排行、行车品牌、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（微信好友，朋友圈分享内容为截图，新浪微博分享文字+截图（含二维码））</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启OnRoad服务，点击设备Home键返回桌面，将应用置于后台长时间运行（12h以上）
+2. 静置期间进行若干次解锁操作，但不启动应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功采集数据、回传服务器
+2. 启动后，展示数据信息timeline无异常断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台运行唤醒（iPhone）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启OnRoad服务，点击设备Home键返回桌面，将应用置于后台长时间运行（12h以上）
+2. 静置期间如发现statusbar的定位图标消失，则若干次解锁操作，但不启动应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 设备中未按装GooglePlayService，应用使用默认定位模块
+2. 应用可成功采集数据、回传服务器并成功展示；
+允许有一定误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未安装GooglePlayService，使用OnRoad服务；关闭GPS定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未安装GooglePlayService，使用OnRoad服务；关闭GPS定位；设备无联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Android理论可一直处于后台运行
+2. iPhone不完全保证后台运行，但有触发唤醒机制，请参照测试用例【035-001、035-002】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入系统设置-应用页面，手动Kill应用服务
+2. 再次重启应用，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设备主动关机（电耗光）
+2.再次重启设备后，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设备被动关机（手动）
+2.再次重启设备后，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设备主动关机（电耗光）
+3.再次重启设备后，查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OnRoad服务被动停止，NotificationBar中运行状态消失
+2.应用可自动重启OnRoad服务，记录数据；
+应用被关闭时间段内，数据显示为Off状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OnRoad服务被动停止
+2.应用可自动重启OnRoad服务，记录数据；
+设备重启时间段内，数据显示为Off状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OnRoad服务被动停止
+2.应用可自动重启OnRoad服务，记录数据；
+设备关机时间段内，数据显示为Off状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OnRoad服务被动停止
+2.应用可自动重启OnRoad服务，记录数据；
+在notificationBar中显示运行状态；
+设备重启时间段内，数据显示为Off状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OnRoad服务被动停止
+2.应用可自动重启OnRoad服务，记录数据；
+在notificationBar中显示运行状态；
+设备关机时间段内，数据显示为Off状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功采集数据、回传服务器（可通过后台服务查看地图gps点的绘制情况，判断数据是否有回传）
+2. 启动后，展示数据信息timeline无异常断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004-003</t>
+  </si>
+  <si>
+    <t>关闭网络连接（Wifi/2G/3G联网）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开启OnRoad服务，将应用退至后台运行
+2. 再次从后台唤醒应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的回传和下载（Android）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的回传和下载（IOS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的回传和下载（IOS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的回传和下载（Version = IOS7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的回传和下载（Version &lt; IOS7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库；
+不在后台进行数据上传操作；
+2. 再次进入应用时：
+  a. 如果直接进入OnRoad页面，则自动进行数据上传、下载操作
+  b. 如果进入非OnRoad页面，则只上传数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库；
+onroad开启状态下每30分钟上传一次数据；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库;
+onroad开启状态下每30分钟上传一次数据；
+2. 再次进入应用时：
+  a. 如果直接进入OnRoad页面，则自动进行数据上传、下载操作
+  b. 如果进入非OnRoad页面，则只上传数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开启OnRoad服务
+2. 手动刷新timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库
+2. 应用启动数据上传、下载操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开启OnRoad服务
+2. 连接网络后，进入OnRoad页面
+3. 连接网络后，不进入应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开启OnRoad服务
+2. 连接网络后，进入应用
+3. 连接网络后，不进入应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库
+2. 再次进入应用时：
+  a. 如果直接进入OnRoad页面，则自动进行数据上传、下载操作
+  b. 如果进入非OnRoad页面，则只上传数据
+3. 应用在下一次上传timer启动时进行上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004-004</t>
+  </si>
+  <si>
+    <t>004-005</t>
+  </si>
+  <si>
+    <t>1. 应用采集数据并保存至本地数据库
+2. 应用在下一次上传timer启动时进行上传
+3. 应用在下一次上传timer启动时进行上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004-006</t>
+  </si>
+  <si>
+    <t>004-007</t>
+  </si>
+  <si>
+    <t>1.关闭“账户与设置”页面中，OnRoad推送push开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4197,27 +4330,75 @@
     <t>041</t>
   </si>
   <si>
+    <t>issue转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户与设置AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增检查点NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高发违章周排行HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007-010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车记录仪TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. check testcase by Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. update testcase by Travis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>网络测试(NW)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. check testcase by Travis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20140106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. update testcase by Travis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4579,13 +4760,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4612,16 +4787,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4640,6 +4809,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4684,17 +4871,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6276,381 +6481,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="51" customWidth="1"/>
-    <col min="5" max="9" width="9" style="51"/>
-    <col min="10" max="10" width="17" style="51" customWidth="1"/>
-    <col min="11" max="11" width="38" style="51" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="51" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="51" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="10.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="47" customWidth="1"/>
+    <col min="5" max="9" width="9" style="47"/>
+    <col min="10" max="10" width="17" style="47" customWidth="1"/>
+    <col min="11" max="11" width="41.125" style="47" customWidth="1"/>
+    <col min="12" max="12" width="25.625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>215</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="s">
+        <v>797</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56" t="s">
+        <v>801</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>806</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56" t="s">
+        <v>808</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27">
+      <c r="A16" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" s="69" t="s">
+      <c r="B16" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="J16" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="52" t="s">
+      <c r="K16" s="56" t="s">
+        <v>809</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+    </row>
+    <row r="17" spans="1:13" ht="27">
+      <c r="A17" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="M3" s="70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="M12" s="70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="M13" s="70" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27">
-      <c r="A16" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="J16" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="K16" s="70" t="s">
-        <v>773</v>
-      </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-    </row>
-    <row r="17" spans="1:13" ht="27">
-      <c r="A17" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="J17" s="69" t="s">
-        <v>775</v>
-      </c>
-      <c r="K17" s="70" t="s">
-        <v>691</v>
-      </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-    </row>
-    <row r="18" spans="1:13" ht="27">
-      <c r="A18" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="J18" s="69" t="s">
-        <v>774</v>
-      </c>
-      <c r="K18" s="70" t="s">
-        <v>776</v>
-      </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="B17" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="J17" s="55" t="s">
+        <v>810</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>811</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6700,14 +6887,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="66">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>229</v>
@@ -6721,12 +6908,12 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="66">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>231</v>
@@ -6740,12 +6927,12 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="66">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>232</v>
@@ -6759,12 +6946,12 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>236</v>
@@ -6778,12 +6965,12 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>24</v>
@@ -6792,7 +6979,7 @@
         <v>230</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -6802,18 +6989,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6833,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6872,19 +7059,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -6893,32 +7080,32 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="15" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="115.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="60" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -6927,32 +7114,32 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="115.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>262</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -6961,21 +7148,21 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="115.5">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="43" customFormat="1">
+    <row r="8" spans="1:7" s="41" customFormat="1">
       <c r="A8" s="21" t="s">
         <v>251</v>
       </c>
@@ -6986,9 +7173,9 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" s="43" customFormat="1" ht="33">
-      <c r="A9" s="55" t="s">
-        <v>468</v>
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="33">
+      <c r="A9" s="57" t="s">
+        <v>464</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>245</v>
@@ -7000,67 +7187,67 @@
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>263</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="43" customFormat="1" ht="33">
-      <c r="A10" s="56"/>
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="33">
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="43" customFormat="1" ht="33">
-      <c r="A11" s="56"/>
+    <row r="11" spans="1:7" s="41" customFormat="1" ht="33">
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="43" customFormat="1" ht="66">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:7" s="41" customFormat="1" ht="66">
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>227</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -7077,10 +7264,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7143,7 +7330,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7164,7 +7351,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -7183,7 +7370,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -7202,7 +7389,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="49.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -7221,7 +7408,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +7427,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="49.5">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -7259,7 +7446,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="115.5">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
@@ -7276,10 +7463,10 @@
         <v>193</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="61"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
@@ -7296,10 +7483,10 @@
         <v>190</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="82.5">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
@@ -7318,7 +7505,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="66">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
@@ -7337,7 +7524,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="66">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="14" t="s">
         <v>175</v>
       </c>
@@ -7356,7 +7543,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="49.5">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="14" t="s">
         <v>176</v>
       </c>
@@ -7374,7 +7561,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="43" customFormat="1">
+    <row r="14" spans="1:8" s="41" customFormat="1">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7385,7 +7572,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:8" s="43" customFormat="1" ht="33">
+    <row r="15" spans="1:8" s="41" customFormat="1" ht="33">
       <c r="A15" s="15"/>
       <c r="B15" s="26" t="s">
         <v>271</v>
@@ -7411,170 +7598,170 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7595,20 +7782,390 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2" s="60" t="s">
+        <v>684</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="60"/>
+      <c r="B3" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5">
+      <c r="A4" s="60"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5">
+      <c r="A5" s="60"/>
+      <c r="B5" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="60"/>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>726</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="33">
+      <c r="A8" s="60"/>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="33">
+      <c r="A9" s="60"/>
+      <c r="B9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="60"/>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="33">
+      <c r="A11" s="60"/>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="60"/>
+      <c r="B12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="99">
+      <c r="A13" s="60"/>
+      <c r="B13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" s="60"/>
+      <c r="B14" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="99">
+      <c r="A15" s="60"/>
+      <c r="B15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="99">
+      <c r="A16" s="60"/>
+      <c r="B16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="99">
+      <c r="A17" s="60"/>
+      <c r="B17" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="99">
+      <c r="A18" s="60"/>
+      <c r="B18" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="G18" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A7:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G26:G53 H66 G67:G1048576 G1:G17">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D67:D1048576 E66 D26:D53 D1:D12">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 H66 G26:G53 G1:G17">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="40.25" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
@@ -7635,760 +8192,762 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.5">
-      <c r="A2" s="62"/>
+      <c r="A2" s="64" t="s">
+        <v>795</v>
+      </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>575</v>
+      <c r="C2" s="46" t="s">
+        <v>560</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>577</v>
+        <v>564</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>562</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>580</v>
+      <c r="C4" s="46" t="s">
+        <v>565</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="165.75" customHeight="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>582</v>
+      <c r="C5" s="46" t="s">
+        <v>567</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="82.5">
-      <c r="A6" s="63"/>
+    <row r="6" spans="1:7" ht="66">
+      <c r="A6" s="65"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>584</v>
+      <c r="C6" s="46" t="s">
+        <v>569</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="66">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>585</v>
+      <c r="C7" s="46" t="s">
+        <v>570</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>587</v>
+      <c r="C8" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="66">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>591</v>
+      <c r="C9" s="46" t="s">
+        <v>576</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="82.5">
-      <c r="A10" s="63"/>
+    <row r="10" spans="1:7" ht="66">
+      <c r="A10" s="65"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>594</v>
+      <c r="C10" s="46" t="s">
+        <v>579</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="66">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>596</v>
+      <c r="C11" s="46" t="s">
+        <v>581</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="66">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>600</v>
+      <c r="C12" s="46" t="s">
+        <v>585</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="49.5">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>601</v>
+      <c r="C13" s="46" t="s">
+        <v>586</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="99">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>602</v>
+      <c r="C14" s="46" t="s">
+        <v>587</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="49.5">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>605</v>
+      <c r="C15" s="46" t="s">
+        <v>590</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="66">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>607</v>
+      <c r="C16" s="46" t="s">
+        <v>592</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="49.5">
-      <c r="A17" s="63"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>612</v>
+      <c r="C17" s="46" t="s">
+        <v>597</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="63"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>614</v>
+        <v>292</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>599</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="66">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>616</v>
+        <v>293</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>601</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="82.5">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>619</v>
+        <v>294</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>604</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="66">
-      <c r="A21" s="63"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>622</v>
+        <v>589</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>607</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="66">
-      <c r="A22" s="63"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>616</v>
+        <v>295</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>601</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="49.5">
-      <c r="A23" s="63"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>629</v>
+        <v>296</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>614</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="66">
-      <c r="A24" s="63"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>632</v>
+        <v>306</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>617</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="66">
-      <c r="A25" s="63"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>635</v>
+        <v>307</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>620</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="66">
-      <c r="A26" s="63"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>638</v>
+        <v>308</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>623</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>202</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="66">
-      <c r="A27" s="63"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>641</v>
+        <v>314</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>626</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="66">
-      <c r="A28" s="63"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>644</v>
+        <v>612</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>629</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="82.5">
-      <c r="A29" s="63"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>647</v>
+        <v>613</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>632</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="82.5">
-      <c r="A30" s="63"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>649</v>
+        <v>315</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>634</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="99">
-      <c r="A31" s="63"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>651</v>
+        <v>323</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>636</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="82.5">
-      <c r="A32" s="63"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>655</v>
+        <v>628</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>640</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="82.5">
-      <c r="A33" s="63"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>659</v>
+        <v>370</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>644</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="66">
-      <c r="A34" s="63"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>661</v>
+        <v>381</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>646</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" ht="99">
-      <c r="A35" s="63"/>
+    <row r="35" spans="1:7" ht="82.5">
+      <c r="A35" s="65"/>
       <c r="B35" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>664</v>
+        <v>382</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>649</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="66">
-      <c r="A36" s="63"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>665</v>
+        <v>383</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>650</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="99">
-      <c r="A37" s="63"/>
+    <row r="37" spans="1:7" ht="82.5">
+      <c r="A37" s="65"/>
       <c r="B37" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>669</v>
+        <v>656</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>654</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="66">
-      <c r="A38" s="63"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>675</v>
+        <v>657</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>660</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="66">
-      <c r="A39" s="63"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>678</v>
+        <v>658</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>663</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="66">
-      <c r="A40" s="63"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>680</v>
+        <v>793</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>665</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>695</v>
-      </c>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="66">
-      <c r="A41" s="63"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>680</v>
+        <v>794</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>665</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>202</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G41" s="15"/>
     </row>
@@ -8398,18 +8957,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G40">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8427,23 +8986,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="55.625" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
@@ -8457,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>752</v>
+        <v>12</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>3</v>
@@ -8469,507 +9028,136 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="66">
-      <c r="A2" s="55" t="s">
-        <v>771</v>
+    <row r="2" spans="1:7" ht="99">
+      <c r="A2" s="57" t="s">
+        <v>812</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>753</v>
+        <v>8</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>719</v>
+        <v>681</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>703</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="82.5">
-      <c r="A3" s="56"/>
+    <row r="3" spans="1:7" ht="115.5">
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D3" s="67"/>
+        <v>681</v>
+      </c>
+      <c r="D3" s="69"/>
       <c r="E3" s="17" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>757</v>
+        <v>705</v>
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="82.5">
-      <c r="A4" s="56"/>
+    <row r="4" spans="1:7" ht="115.5">
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="D4" s="67"/>
+        <v>682</v>
+      </c>
+      <c r="D4" s="69"/>
       <c r="E4" s="17" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="82.5">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:7" ht="132">
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="D5" s="67"/>
+        <v>710</v>
+      </c>
+      <c r="D5" s="69"/>
       <c r="E5" s="17" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>762</v>
+        <v>705</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="82.5">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:7" ht="115.5">
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="D6" s="67"/>
+        <v>713</v>
+      </c>
+      <c r="D6" s="69"/>
       <c r="E6" s="17" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="82.5">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:7" ht="132">
+      <c r="A7" s="59"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" s="67"/>
+      <c r="C7" s="70" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="69"/>
       <c r="E7" s="17" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="G7" s="68"/>
+        <v>705</v>
+      </c>
+      <c r="G7" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1">
       <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6">
-      <formula1>"N,F,P"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="58" t="s">
-        <v>700</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="58"/>
-      <c r="B3" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="58"/>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="58"/>
-      <c r="B5" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="58"/>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5">
-      <c r="A7" s="58" t="s">
-        <v>741</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>711</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>742</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="33">
-      <c r="A8" s="58"/>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="33">
-      <c r="A9" s="58"/>
-      <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="33">
-      <c r="A10" s="58"/>
-      <c r="B10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="33">
-      <c r="A11" s="58"/>
-      <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="33">
-      <c r="A12" s="58"/>
-      <c r="B12" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="99">
-      <c r="A13" s="58"/>
-      <c r="B13" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>719</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>720</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>721</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="99">
-      <c r="A14" s="58"/>
-      <c r="B14" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="99">
-      <c r="A15" s="58"/>
-      <c r="B15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="99">
-      <c r="A16" s="58"/>
-      <c r="B16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>728</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="99">
-      <c r="A17" s="58"/>
-      <c r="B17" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="99">
-      <c r="A18" s="58"/>
-      <c r="B18" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="G18" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A7:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G26:G53 H66 G67:G1048576 G1:G17">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D67:D1048576 E66 D26:D53 D1:D12">
-      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 H66 G26:G53 G1:G17">
-      <formula1>"N,F,P"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8977,17 +9165,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -9016,7 +9205,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -9037,7 +9226,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="115.5">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -9056,12 +9245,12 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>202</v>
@@ -9070,7 +9259,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G4" s="15"/>
     </row>
@@ -9086,137 +9275,137 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="132">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>409</v>
-      </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="40" customFormat="1" ht="33">
-      <c r="A8" s="56"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:7" s="38" customFormat="1" ht="33">
+      <c r="A8" s="58"/>
+      <c r="B8" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" s="40" customFormat="1" ht="33">
+      <c r="A9" s="58"/>
+      <c r="B9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="49.5">
+      <c r="A10" s="58"/>
+      <c r="B10" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="1:7" s="42" customFormat="1" ht="33">
-      <c r="A9" s="56"/>
-      <c r="B9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A10" s="56"/>
-      <c r="B10" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -9227,10 +9416,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9249,10 +9438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9286,10 +9475,10 @@
       <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="231">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -9302,16 +9491,16 @@
         <v>27</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G2" s="15"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="231">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="14" t="s">
         <v>243</v>
       </c>
@@ -9328,1173 +9517,1448 @@
         <v>260</v>
       </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="37" customFormat="1" ht="33">
-      <c r="A7" s="58"/>
-      <c r="B7" s="35" t="s">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" s="35" customFormat="1" ht="33">
+      <c r="A7" s="60"/>
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>482</v>
+        <v>774</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>483</v>
+        <v>780</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" s="37" customFormat="1" ht="33">
-      <c r="A8" s="58"/>
-      <c r="B8" s="35" t="s">
-        <v>478</v>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" s="35" customFormat="1" ht="33">
+      <c r="A8" s="60"/>
+      <c r="B8" s="34" t="s">
+        <v>474</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>482</v>
+        <v>774</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>484</v>
+        <v>783</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" s="34" customFormat="1" ht="33">
-      <c r="A9" s="58"/>
-      <c r="B9" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="34" customFormat="1" ht="33">
-      <c r="A10" s="58"/>
-      <c r="B10" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="82.5">
-      <c r="A11" s="58"/>
-      <c r="B11" s="14" t="s">
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" s="35" customFormat="1" ht="49.5">
+      <c r="A9" s="60"/>
+      <c r="B9" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" s="35" customFormat="1" ht="33">
+      <c r="A10" s="60"/>
+      <c r="B10" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" s="35" customFormat="1" ht="33">
+      <c r="A11" s="60"/>
+      <c r="B11" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>783</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" s="35" customFormat="1" ht="82.5">
+      <c r="A12" s="60"/>
+      <c r="B12" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>785</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" s="35" customFormat="1" ht="82.5">
+      <c r="A13" s="60"/>
+      <c r="B13" s="34" t="s">
+        <v>790</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="82.5">
+      <c r="A14" s="60"/>
+      <c r="B14" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="82.5">
+      <c r="A15" s="60"/>
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="58"/>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="99">
-      <c r="A13" s="58"/>
-      <c r="B13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="33">
-      <c r="A14" s="58"/>
-      <c r="B14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="82.5">
-      <c r="A15" s="58"/>
-      <c r="B15" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>536</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>311</v>
+        <v>491</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="49.5">
-      <c r="A16" s="58"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="33">
+      <c r="A16" s="60"/>
       <c r="B16" s="14" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>508</v>
+        <v>275</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="49.5">
-      <c r="A17" s="58"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="99">
+      <c r="A17" s="60"/>
       <c r="B17" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>507</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>510</v>
+        <v>277</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="58"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="45"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="33">
+      <c r="A18" s="60"/>
+      <c r="B18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="58"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="82.5">
+      <c r="A19" s="60"/>
       <c r="B19" s="14" t="s">
-        <v>163</v>
+        <v>522</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>284</v>
+        <v>521</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="49.5">
+      <c r="A20" s="60"/>
+      <c r="B20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.5">
+      <c r="A21" s="60"/>
+      <c r="B21" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="49.5">
+      <c r="A22" s="60"/>
+      <c r="B22" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" ht="33">
+      <c r="A23" s="60"/>
+      <c r="B23" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="49.5">
+      <c r="A24" s="60"/>
+      <c r="B24" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="66">
+      <c r="A25" s="60"/>
+      <c r="B25" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="66">
+      <c r="A26" s="60"/>
+      <c r="B26" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.5">
+      <c r="A27" s="60"/>
+      <c r="B27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F27" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" ht="33">
+      <c r="A28" s="60"/>
+      <c r="B28" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="33">
-      <c r="A20" s="58"/>
-      <c r="B20" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="38" t="s">
+      <c r="D28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" s="42" customFormat="1" ht="49.5">
+      <c r="A29" s="60"/>
+      <c r="B29" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="82.5">
+      <c r="A30" s="60"/>
+      <c r="B30" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" s="44" customFormat="1" ht="49.5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="82.5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="F30" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" ht="66">
+      <c r="A31" s="60"/>
+      <c r="B31" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F31" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="49.5">
+      <c r="A32" s="60"/>
+      <c r="B32" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="33">
+      <c r="A33" s="60"/>
+      <c r="B33" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" ht="49.5">
+      <c r="A34" s="60"/>
+      <c r="B34" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="66">
-      <c r="A23" s="58"/>
-      <c r="B23" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="D34" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="33">
+      <c r="A35" s="60"/>
+      <c r="B35" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="49.5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="33">
-      <c r="A25" s="58"/>
-      <c r="B25" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E35" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" ht="33">
+      <c r="A36" s="60"/>
+      <c r="B36" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="58"/>
-      <c r="B27" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" ht="33">
-      <c r="A28" s="58"/>
-      <c r="B28" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="49.5">
-      <c r="A29" s="58"/>
-      <c r="B29" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" ht="66">
-      <c r="A30" s="58"/>
-      <c r="B30" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="132">
-      <c r="A31" s="58"/>
-      <c r="B31" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="82.5">
-      <c r="A32" s="58"/>
-      <c r="B32" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="99">
-      <c r="A33" s="58"/>
-      <c r="B33" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="58"/>
-      <c r="B34" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.5">
-      <c r="A35" s="58"/>
-      <c r="B35" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="82.5">
-      <c r="A36" s="58"/>
-      <c r="B36" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>530</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>526</v>
+        <v>378</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="82.5">
-      <c r="A37" s="58"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" ht="49.5">
+      <c r="A37" s="60"/>
       <c r="B37" s="14" t="s">
-        <v>525</v>
+        <v>283</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>531</v>
+        <v>297</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>528</v>
+        <v>298</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>529</v>
+        <v>299</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" ht="82.5">
-      <c r="A38" s="58"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" ht="66">
+      <c r="A38" s="60"/>
       <c r="B38" s="14" t="s">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>532</v>
+        <v>300</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" ht="132">
+      <c r="A39" s="60"/>
+      <c r="B39" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" ht="82.5">
+      <c r="A40" s="60"/>
+      <c r="B40" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" ht="99">
+      <c r="A41" s="60"/>
+      <c r="B41" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="58"/>
-      <c r="B39" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" s="44" customFormat="1" ht="82.5">
-      <c r="A40" s="58"/>
-      <c r="B40" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="42"/>
-    </row>
-    <row r="41" spans="1:8" ht="82.5">
-      <c r="A41" s="58"/>
-      <c r="B41" s="14" t="s">
-        <v>306</v>
-      </c>
       <c r="C41" s="15" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>542</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" ht="115.5">
-      <c r="A42" s="58"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="60"/>
       <c r="B42" s="14" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="58"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" ht="49.5">
+      <c r="A43" s="60"/>
       <c r="B43" s="14" t="s">
-        <v>307</v>
+        <v>534</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" s="49" customFormat="1" ht="33">
-      <c r="A44" s="58"/>
-      <c r="B44" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="D44" s="47" t="s">
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" ht="82.5">
+      <c r="A44" s="60"/>
+      <c r="B44" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="1:8" ht="148.5">
-      <c r="A45" s="58"/>
+      <c r="E44" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" ht="82.5">
+      <c r="A45" s="60"/>
       <c r="B45" s="14" t="s">
-        <v>309</v>
+        <v>510</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="G45" s="15"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="66">
-      <c r="A46" s="58"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" ht="82.5">
+      <c r="A46" s="60"/>
       <c r="B46" s="14" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>566</v>
+        <v>518</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" ht="66">
-      <c r="A47" s="58"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="33">
+      <c r="A47" s="60"/>
       <c r="B47" s="14" t="s">
-        <v>547</v>
+        <v>295</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>569</v>
+        <v>304</v>
       </c>
       <c r="D47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" s="42" customFormat="1" ht="82.5">
+      <c r="A48" s="60"/>
+      <c r="B48" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" ht="49.5">
-      <c r="A48" s="58"/>
-      <c r="B48" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="E48" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="82.5">
+      <c r="A49" s="60"/>
+      <c r="B49" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" s="44" customFormat="1" ht="33">
-      <c r="A49" s="58"/>
-      <c r="B49" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="38" t="s">
+      <c r="E49" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="115.5">
+      <c r="A50" s="60"/>
+      <c r="B50" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="42"/>
-    </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="58"/>
-      <c r="B50" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>320</v>
+      <c r="E50" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="G50" s="15"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="33">
-      <c r="A51" s="58"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>392</v>
+        <v>544</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>396</v>
+        <v>531</v>
       </c>
       <c r="G51" s="15"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" ht="33">
-      <c r="A52" s="58"/>
-      <c r="B52" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="15" t="s">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" s="45" customFormat="1" ht="33">
+      <c r="A52" s="60"/>
+      <c r="B52" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="D52" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" ht="33">
-      <c r="A53" s="58"/>
+      <c r="E52" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="G52" s="44"/>
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="1:8" ht="148.5">
+      <c r="A53" s="60"/>
       <c r="B53" s="14" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>390</v>
+        <v>547</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>395</v>
+        <v>548</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>398</v>
+        <v>549</v>
       </c>
       <c r="G53" s="15"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" ht="66">
-      <c r="A54" s="58"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>321</v>
+        <v>532</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>550</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>322</v>
+        <v>553</v>
       </c>
       <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" ht="33">
-      <c r="A55" s="58"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" ht="66">
+      <c r="A55" s="60"/>
       <c r="B55" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>321</v>
+        <v>532</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>402</v>
+        <v>555</v>
       </c>
       <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" ht="99">
-      <c r="A56" s="58"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" ht="49.5">
+      <c r="A56" s="60"/>
       <c r="B56" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C56" s="33" t="s">
         <v>314</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>496</v>
+      <c r="E56" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>557</v>
       </c>
       <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" ht="33">
-      <c r="A57" s="58"/>
-      <c r="B57" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="D57" s="15" t="s">
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" s="42" customFormat="1" ht="33">
+      <c r="A57" s="60"/>
+      <c r="B57" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" ht="49.5">
-      <c r="A58" s="58"/>
-      <c r="B58" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>386</v>
+      <c r="E57" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8" ht="33">
+      <c r="A58" s="60"/>
+      <c r="B58" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>319</v>
       </c>
       <c r="G58" s="15"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="33">
-      <c r="A59" s="58"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>388</v>
+        <v>315</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="F59" s="33" t="s">
+      <c r="E59" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" ht="33">
+      <c r="A60" s="60"/>
+      <c r="B60" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" ht="33">
-      <c r="A60" s="58"/>
-      <c r="B60" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>574</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>696</v>
+      <c r="E60" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>394</v>
       </c>
       <c r="G60" s="15"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" ht="33">
-      <c r="A61" s="58"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" ht="66">
+      <c r="A62" s="60"/>
+      <c r="B62" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="54"/>
+    </row>
+    <row r="63" spans="1:8" ht="33">
+      <c r="A63" s="60"/>
+      <c r="B63" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="54"/>
+    </row>
+    <row r="64" spans="1:8" ht="99">
+      <c r="A64" s="60"/>
+      <c r="B64" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="54"/>
+    </row>
+    <row r="65" spans="1:8" ht="33">
+      <c r="A65" s="60"/>
+      <c r="B65" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="54"/>
+    </row>
+    <row r="66" spans="1:8" ht="49.5">
+      <c r="A66" s="60"/>
+      <c r="B66" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="54"/>
+    </row>
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="60"/>
+      <c r="B67" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:8" ht="49.5">
+      <c r="A68" s="60"/>
+      <c r="B68" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="54"/>
+    </row>
+    <row r="69" spans="1:8" ht="49.5">
+      <c r="A69" s="60"/>
+      <c r="B69" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" spans="1:8" ht="33">
+      <c r="A70" s="60"/>
+      <c r="B70" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F61" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" s="15"/>
+      <c r="C70" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="54"/>
+    </row>
+    <row r="71" spans="1:8" ht="82.5">
+      <c r="A71" s="60"/>
+      <c r="B71" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" spans="1:8" ht="82.5">
+      <c r="A72" s="60"/>
+      <c r="B72" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="60"/>
+      <c r="B73" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="54"/>
+    </row>
+    <row r="74" spans="1:8" ht="82.5">
+      <c r="A74" s="60"/>
+      <c r="B74" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A61"/>
+    <mergeCell ref="A2:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G61">
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+  <conditionalFormatting sqref="G1:G74">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G74">
       <formula1>"N,F,P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10541,7 +11005,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -10562,7 +11026,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -10581,7 +11045,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="82.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -10600,7 +11064,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -10619,7 +11083,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -10638,7 +11102,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -10651,13 +11115,13 @@
       <c r="E7" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="60" t="s">
         <v>172</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
@@ -10670,11 +11134,11 @@
       <c r="E8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
@@ -10684,16 +11148,16 @@
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="60" t="s">
         <v>174</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
@@ -10703,12 +11167,12 @@
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
@@ -10718,8 +11182,8 @@
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1">
@@ -10734,42 +11198,42 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A13" s="59" t="s">
-        <v>352</v>
+      <c r="A13" s="61" t="s">
+        <v>351</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A14" s="60"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -10783,10 +11247,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10846,7 +11310,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -10867,7 +11331,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -10886,7 +11350,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -10905,7 +11369,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -10924,7 +11388,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -10943,7 +11407,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -10973,8 +11437,8 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="132">
-      <c r="A9" s="55" t="s">
-        <v>332</v>
+      <c r="A9" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>245</v>
@@ -10994,9 +11458,9 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>91</v>
@@ -11013,7 +11477,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
@@ -11032,7 +11496,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="14" t="s">
         <v>163</v>
       </c>
@@ -11062,61 +11526,61 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A14" s="55" t="s">
-        <v>350</v>
+      <c r="A14" s="57" t="s">
+        <v>349</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>271</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="99">
+      <c r="A15" s="58"/>
+      <c r="B15" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>424</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="99">
-      <c r="A15" s="56"/>
-      <c r="B15" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A16" s="57"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -11128,10 +11592,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11195,7 +11659,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11216,7 +11680,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -11235,7 +11699,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="49.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11254,7 +11718,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
@@ -11278,7 +11742,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -11299,7 +11763,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="66">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="14" t="s">
         <v>210</v>
       </c>
@@ -11318,7 +11782,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
@@ -11335,10 +11799,10 @@
         <v>217</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="14" t="s">
         <v>252</v>
       </c>
@@ -11355,7 +11819,7 @@
         <v>216</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1">
       <c r="A11" s="27" t="s">
@@ -11370,34 +11834,34 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A12" s="62" t="s">
-        <v>359</v>
+      <c r="A12" s="64" t="s">
+        <v>358</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="82.5">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="26" t="s">
         <v>270</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
@@ -11406,26 +11870,26 @@
         <v>102</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="26" t="s">
         <v>271</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -11438,42 +11902,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5 H9:H12 G7:G1048576">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="93" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11536,7 +12000,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="148.5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11557,7 +12021,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="132">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -11576,7 +12040,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="148.5">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11595,7 +12059,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="148.5">
-      <c r="A5" s="56"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -11614,7 +12078,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="82.5">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -11633,7 +12097,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="49.5">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -11652,7 +12116,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:21" ht="49.5">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -11671,7 +12135,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:21" ht="66">
-      <c r="A9" s="56"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -11690,7 +12154,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="33">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -11734,8 +12198,8 @@
       <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21" ht="33">
-      <c r="A12" s="64" t="s">
-        <v>346</v>
+      <c r="A12" s="66" t="s">
+        <v>345</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>227</v>
@@ -11750,26 +12214,26 @@
         <v>256</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:21" ht="66">
-      <c r="A13" s="65"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="26" t="s">
         <v>271</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -11780,34 +12244,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11871,7 +12335,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -11892,7 +12356,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="82.5">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -11911,7 +12375,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -11930,7 +12394,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
@@ -11949,7 +12413,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -11968,7 +12432,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -11987,7 +12451,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
@@ -12017,66 +12481,66 @@
       <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="55" t="s">
-        <v>344</v>
+      <c r="A10" s="57" t="s">
+        <v>343</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>245</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="26" t="s">
         <v>252</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="99">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>253</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12086,10 +12550,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10:H12 G1:G1048576 G11:H11">
-    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12153,7 +12617,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -12174,7 +12638,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="58"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -12193,7 +12657,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="82.5">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -12212,7 +12676,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="82.5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -12231,7 +12695,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -12250,7 +12714,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -12280,66 +12744,66 @@
       <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="55" t="s">
-        <v>342</v>
+      <c r="A9" s="57" t="s">
+        <v>341</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>245</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>456</v>
-      </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="56"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="26" t="s">
         <v>252</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="99">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="26" t="s">
         <v>253</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12349,82 +12813,82 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H11">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
